--- a/target/classes/Product Sheet.xlsx
+++ b/target/classes/Product Sheet.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
   <si>
     <t>Product Name</t>
   </si>
@@ -31,12 +31,79 @@
   </si>
   <si>
     <t>Original value (Rs)</t>
+  </si>
+  <si>
+    <t>Redmi Note 11T 5G</t>
+  </si>
+  <si>
+    <t>18,499</t>
+  </si>
+  <si>
+    <t>9,150.00</t>
+  </si>
+  <si>
+    <t>9,449.00</t>
+  </si>
+  <si>
+    <t>Oppo F21s Pro 5G</t>
+  </si>
+  <si>
+    <t>25,999</t>
+  </si>
+  <si>
+    <t>16,949.00</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra</t>
+  </si>
+  <si>
+    <t>1,09,999</t>
+  </si>
+  <si>
+    <t>1,00,949.00</t>
+  </si>
+  <si>
+    <t>OnePlus 11R 5G</t>
+  </si>
+  <si>
+    <t>44,999</t>
+  </si>
+  <si>
+    <t>35,949.00</t>
+  </si>
+  <si>
+    <t>iQOO 11 5G</t>
+  </si>
+  <si>
+    <t>64,990</t>
+  </si>
+  <si>
+    <t>55,940.00</t>
+  </si>
+  <si>
+    <t>OnePlus Nord 2T 5G</t>
+  </si>
+  <si>
+    <t>28,999</t>
+  </si>
+  <si>
+    <t>19,949.00</t>
+  </si>
+  <si>
+    <t>realme Narzo 50 Pro 5G</t>
+  </si>
+  <si>
+    <t>17,980</t>
+  </si>
+  <si>
+    <t>8,930.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -387,10 +454,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -407,6 +474,370 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/Product Sheet.xlsx
+++ b/target/classes/Product Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
   <si>
     <t>Product Name</t>
   </si>
@@ -97,6 +97,63 @@
   </si>
   <si>
     <t>8,930.00</t>
+  </si>
+  <si>
+    <t>iQOO Neo 7</t>
+  </si>
+  <si>
+    <t>29,999</t>
+  </si>
+  <si>
+    <t>11,150.00</t>
+  </si>
+  <si>
+    <t>18,949.00</t>
+  </si>
+  <si>
+    <t>OnePlus 10 Pro</t>
+  </si>
+  <si>
+    <t>71,999</t>
+  </si>
+  <si>
+    <t>62,949.00</t>
+  </si>
+  <si>
+    <t>realme 9 5G SE</t>
+  </si>
+  <si>
+    <t>17,990</t>
+  </si>
+  <si>
+    <t>8,940.00</t>
+  </si>
+  <si>
+    <t>33,999</t>
+  </si>
+  <si>
+    <t>22,949.00</t>
+  </si>
+  <si>
+    <t>60,999</t>
+  </si>
+  <si>
+    <t>51,949.00</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro</t>
+  </si>
+  <si>
+    <t>1,32,999</t>
+  </si>
+  <si>
+    <t>1,23,949.00</t>
+  </si>
+  <si>
+    <t>19,399</t>
+  </si>
+  <si>
+    <t>10,350.00</t>
   </si>
 </sst>
 </file>
@@ -446,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -838,6 +895,440 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
